--- a/dataset/transformed_dataset.xlsx
+++ b/dataset/transformed_dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K503"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7250155136064604</v>
+        <v>0.2958554049477018</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>13.43625498007968</v>
+        <v>13.432</v>
       </c>
     </row>
     <row r="8">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="14">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="20">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="37">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="42">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="46">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="57">
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="58">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="61">
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="62">
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>10.43625498007968</v>
+        <v>10.432</v>
       </c>
     </row>
     <row r="63">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="64">
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>9.436254980079681</v>
+        <v>9.431999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="66">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="67">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>11.56374501992032</v>
+        <v>11.568</v>
       </c>
     </row>
     <row r="70">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="71">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>8.563745019920319</v>
+        <v>8.568000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="77">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="79">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="82">
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="85">
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="87">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="89">
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>11.43625498007968</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="91">
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="92">
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="93">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="94">
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="96">
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="98">
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>25.56374501992032</v>
+        <v>25.568</v>
       </c>
     </row>
     <row r="102">
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="105">
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>11.43625498007968</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="111">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="112">
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="114">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.49</v>
+        <v>1.515</v>
       </c>
       <c r="H114" t="n">
         <v>1.223595205193837</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="116">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="118">
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="120">
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="124">
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="125">
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="131">
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="136">
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="138">
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="143">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="144">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="145">
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="146">
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="147">
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="148">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="150">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>12.43625498007968</v>
+        <v>12.432</v>
       </c>
     </row>
     <row r="154">
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="155">
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>9.563745019920319</v>
+        <v>9.568000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="157">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="158">
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="159">
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>7.436254980079681</v>
+        <v>7.431999999999999</v>
       </c>
     </row>
     <row r="160">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="161">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="164">
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="165">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="166">
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="168">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="169">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="171">
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="172">
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="173">
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="174">
@@ -6888,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="175">
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="177">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="178">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="181">
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="183">
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="184">
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="185">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>13.43625498007968</v>
+        <v>13.432</v>
       </c>
     </row>
     <row r="186">
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="188">
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>7.563745019920319</v>
+        <v>7.568000000000001</v>
       </c>
     </row>
     <row r="189">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="190">
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="191">
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>7.436254980079681</v>
+        <v>7.431999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="194">
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="197">
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="198">
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>11.43625498007968</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="199">
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="202">
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="203">
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>8.563745019920319</v>
+        <v>8.568000000000001</v>
       </c>
     </row>
     <row r="204">
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="205">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="206">
@@ -8072,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="207">
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="209">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>9.436254980079681</v>
+        <v>9.431999999999999</v>
       </c>
     </row>
     <row r="210">
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="211">
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="212">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="213">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="214">
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="215">
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="217">
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="218">
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="219">
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="220">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="221">
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="222">
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="223">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="224">
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="225">
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>7.563745019920319</v>
+        <v>7.568000000000001</v>
       </c>
     </row>
     <row r="226">
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="227">
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="K227" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="228">
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="K228" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="K229" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="230">
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="K230" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="232">
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="233">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="234">
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="235">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="236">
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="237">
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="238">
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="239">
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="240">
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="241">
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="242">
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="243">
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="244">
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="245">
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="246">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="K246" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="247">
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="248">
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="249">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="250">
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="K250" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="251">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="K251" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="252">
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="K252" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="253">
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="254">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="K254" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="255">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="256">
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="257">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="K257" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="258">
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="K258" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="259">
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="K259" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="260">
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="261">
@@ -10080,10 +10080,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.636</v>
+        <v>0.6920000000000001</v>
       </c>
       <c r="C261" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
         <v>46.2</v>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="262">
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="K262" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="263">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="K263" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="264">
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="265">
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="K265" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="K266" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="267">
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>7.563745019920319</v>
+        <v>7.568000000000001</v>
       </c>
     </row>
     <row r="268">
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="K268" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="269">
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="K269" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="270">
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="K270" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="271">
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="K271" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="272">
@@ -10514,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="273">
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="K273" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="274">
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K274" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="275">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="276">
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="K276" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="277">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="K277" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="278">
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="K278" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="279">
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="280">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="K280" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="281">
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="K281" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="282">
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="283">
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="K283" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="284">
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>11.43625498007968</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="285">
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="K285" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="286">
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="K286" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="287">
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="288">
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="K288" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="289">
@@ -11143,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="290">
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="291">
@@ -11217,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="K291" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="292">
@@ -11242,7 +11242,7 @@
         <v>4</v>
       </c>
       <c r="G292" t="n">
-        <v>35.223</v>
+        <v>37.654</v>
       </c>
       <c r="H292" t="n">
         <v>1.366247646937791</v>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="K292" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="293">
@@ -11282,7 +11282,7 @@
         <v>0.301</v>
       </c>
       <c r="H293" t="n">
-        <v>1.8636</v>
+        <v>2.551985487263379</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="K293" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="294">
@@ -11328,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="K294" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="295">
@@ -11365,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="296">
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>7.436254980079681</v>
+        <v>7.431999999999999</v>
       </c>
     </row>
     <row r="297">
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="K297" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="298">
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="K298" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="299">
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="K299" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="300">
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="K300" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="301">
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="302">
@@ -11624,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="K302" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="303">
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="K303" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="304">
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="305">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="K305" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="306">
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="K306" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="307">
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="K307" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="308">
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="K308" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="309">
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="K309" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="310">
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="K310" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="311">
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="K311" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="312">
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="K312" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="313">
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="K313" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="314">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="K314" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="315">
@@ -12105,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="K315" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="316">
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="K316" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="317">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="K317" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="318">
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="K318" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="319">
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="K319" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="320">
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="K320" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="321">
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="K321" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="322">
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="K322" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="323">
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="K323" t="n">
-        <v>12.56374501992032</v>
+        <v>12.568</v>
       </c>
     </row>
     <row r="324">
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="K324" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="325">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="K325" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="326">
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="K326" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="327">
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="K327" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="328">
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="K328" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="329">
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="K329" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="330">
@@ -12660,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="K330" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="331">
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="K331" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="332">
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="K332" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="333">
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="K333" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="334">
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="K334" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="335">
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="K335" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="336">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="K336" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="337">
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="K337" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="338">
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="K338" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="339">
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="K339" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="340">
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="K340" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="341">
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="K341" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="342">
@@ -13104,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="K342" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="343">
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="K343" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="344">
@@ -13178,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="K344" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="345">
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="K345" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="346">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="K346" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="347">
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="K347" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="348">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="K348" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="349">
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="K349" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="350">
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="K350" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="351">
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="K351" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="352">
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="K352" t="n">
-        <v>8.563745019920319</v>
+        <v>8.568000000000001</v>
       </c>
     </row>
     <row r="353">
@@ -13511,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="K353" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="354">
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K354" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="355">
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="K355" t="n">
-        <v>11.43625498007968</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="356">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="K356" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="357">
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="K357" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="358">
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="K358" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="359">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="K359" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="360">
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="K360" t="n">
-        <v>7.563745019920319</v>
+        <v>7.568000000000001</v>
       </c>
     </row>
     <row r="361">
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="K361" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="362">
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="K362" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="363">
@@ -13881,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>7.563745019920319</v>
+        <v>7.568000000000001</v>
       </c>
     </row>
     <row r="364">
@@ -13918,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="K364" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="365">
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="K365" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="366">
@@ -13992,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="367">
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="K367" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="368">
@@ -14066,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="K368" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="369">
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="K369" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="370">
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="K370" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="371">
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="K371" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="372">
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="K372" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="373">
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="K373" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="374">
@@ -14288,7 +14288,7 @@
         <v>0</v>
       </c>
       <c r="K374" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="375">
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="K375" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="376">
@@ -14362,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="K376" t="n">
-        <v>12.43625498007968</v>
+        <v>12.432</v>
       </c>
     </row>
     <row r="377">
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="K377" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="378">
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="K378" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="379">
@@ -14473,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="K379" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="380">
@@ -14510,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="K380" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="381">
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="K381" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="382">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="K382" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="383">
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="K383" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="384">
@@ -14658,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="K384" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="385">
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="K385" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="386">
@@ -14732,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="K386" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="387">
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="K387" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="388">
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="K388" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="389">
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="K389" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="390">
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="K390" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="391">
@@ -14917,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="K391" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="392">
@@ -14954,7 +14954,7 @@
         <v>1</v>
       </c>
       <c r="K392" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="393">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="K393" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="394">
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="K394" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="395">
@@ -15065,7 +15065,7 @@
         <v>0</v>
       </c>
       <c r="K395" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="396">
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="K396" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="397">
@@ -15139,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="K397" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="398">
@@ -15176,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="K398" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="399">
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="K399" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="400">
@@ -15250,7 +15250,7 @@
         <v>0</v>
       </c>
       <c r="K400" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="401">
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="K401" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="402">
@@ -15324,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="K402" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="403">
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="K403" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="404">
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
       <c r="K404" t="n">
-        <v>12.43625498007968</v>
+        <v>12.432</v>
       </c>
     </row>
     <row r="405">
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="K405" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="406">
@@ -15472,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="K406" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="407">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="K407" t="n">
-        <v>12.56374501992032</v>
+        <v>12.568</v>
       </c>
     </row>
     <row r="408">
@@ -15546,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="K408" t="n">
-        <v>7.436254980079681</v>
+        <v>7.431999999999999</v>
       </c>
     </row>
     <row r="409">
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="K409" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="410">
@@ -15620,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="K410" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="411">
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="K411" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="412">
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="K412" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="413">
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="K413" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="414">
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="K414" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="415">
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="K415" t="n">
-        <v>7.563745019920319</v>
+        <v>7.568000000000001</v>
       </c>
     </row>
     <row r="416">
@@ -15842,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="K416" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="417">
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="K417" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="418">
@@ -15916,7 +15916,7 @@
         <v>0</v>
       </c>
       <c r="K418" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="419">
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="K419" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="420">
@@ -15990,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="K420" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="421">
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="K421" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="422">
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="K422" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="423">
@@ -16101,7 +16101,7 @@
         <v>1</v>
       </c>
       <c r="K423" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="424">
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="K424" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="425">
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="K425" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="426">
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="K426" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="427">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="K427" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="428">
@@ -16286,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="K428" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="429">
@@ -16323,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="K429" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="430">
@@ -16360,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="K430" t="n">
-        <v>6.563745019920319</v>
+        <v>6.568000000000001</v>
       </c>
     </row>
     <row r="431">
@@ -16397,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="K431" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="432">
@@ -16434,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="K432" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="433">
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="K433" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="434">
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="K434" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="435">
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="K435" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="436">
@@ -16582,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="K436" t="n">
-        <v>20.56374501992032</v>
+        <v>20.568</v>
       </c>
     </row>
     <row r="437">
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="K437" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="438">
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="K438" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="439">
@@ -16693,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="K439" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="440">
@@ -16730,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="K440" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="441">
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="K441" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="442">
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="K442" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="443">
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="K443" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="444">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="K444" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="445">
@@ -16915,7 +16915,7 @@
         <v>0</v>
       </c>
       <c r="K445" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="446">
@@ -16952,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="K446" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="447">
@@ -16989,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="K447" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="448">
@@ -17026,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="K448" t="n">
-        <v>6.436254980079681</v>
+        <v>6.431999999999999</v>
       </c>
     </row>
     <row r="449">
@@ -17063,7 +17063,7 @@
         <v>1</v>
       </c>
       <c r="K449" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="450">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="K450" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="451">
@@ -17137,7 +17137,7 @@
         <v>0</v>
       </c>
       <c r="K451" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="452">
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="K452" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="453">
@@ -17211,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="K453" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="454">
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
       <c r="K454" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="455">
@@ -17285,7 +17285,7 @@
         <v>1</v>
       </c>
       <c r="K455" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="456">
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="K456" t="n">
-        <v>4.563745019920319</v>
+        <v>4.568000000000001</v>
       </c>
     </row>
     <row r="457">
@@ -17359,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="K457" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="458">
@@ -17396,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="K458" t="n">
-        <v>7.436254980079681</v>
+        <v>7.431999999999999</v>
       </c>
     </row>
     <row r="459">
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="K459" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="460">
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="K460" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="461">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="K461" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="462">
@@ -17544,7 +17544,7 @@
         <v>1</v>
       </c>
       <c r="K462" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="463">
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="K463" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="464">
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="K464" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="465">
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="K465" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="466">
@@ -17692,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="K466" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="467">
@@ -17729,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="K467" t="n">
-        <v>7.436254980079681</v>
+        <v>7.431999999999999</v>
       </c>
     </row>
     <row r="468">
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="K468" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="469">
@@ -17803,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="K469" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="470">
@@ -17840,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="K470" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="471">
@@ -17877,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="K471" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="472">
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="K472" t="n">
-        <v>5.436254980079681</v>
+        <v>5.431999999999999</v>
       </c>
     </row>
     <row r="473">
@@ -17951,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="K473" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="474">
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="K474" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="475">
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="K475" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="476">
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="K476" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="477">
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="K477" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="478">
@@ -18136,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="K478" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="479">
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="K479" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="480">
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="K480" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="481">
@@ -18247,7 +18247,7 @@
         <v>0</v>
       </c>
       <c r="K481" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="482">
@@ -18284,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="K482" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="483">
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="K483" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="484">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="K484" t="n">
-        <v>5.563745019920319</v>
+        <v>5.568000000000001</v>
       </c>
     </row>
     <row r="485">
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="K485" t="n">
-        <v>3.563745019920319</v>
+        <v>3.568000000000001</v>
       </c>
     </row>
     <row r="486">
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="K486" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="487">
@@ -18469,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="K487" t="n">
-        <v>2.563745019920319</v>
+        <v>2.568000000000001</v>
       </c>
     </row>
     <row r="488">
@@ -18506,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="K488" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="489">
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="K489" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="490">
@@ -18580,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="K490" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="491">
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="K491" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="492">
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="K492" t="n">
-        <v>2.436254980079681</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="493">
@@ -18691,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="K493" t="n">
-        <v>3.436254980079681</v>
+        <v>3.431999999999999</v>
       </c>
     </row>
     <row r="494">
@@ -18728,7 +18728,7 @@
         <v>0</v>
       </c>
       <c r="K494" t="n">
-        <v>4.436254980079681</v>
+        <v>4.431999999999999</v>
       </c>
     </row>
     <row r="495">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="K495" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="496">
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="K496" t="n">
-        <v>1.563745019920319</v>
+        <v>1.568000000000001</v>
       </c>
     </row>
     <row r="497">
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="K497" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="498">
@@ -18876,7 +18876,7 @@
         <v>0</v>
       </c>
       <c r="K498" t="n">
-        <v>0.4362549800796813</v>
+        <v>0.4319999999999986</v>
       </c>
     </row>
     <row r="499">
@@ -18913,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="K499" t="n">
-        <v>0.5637450199203187</v>
+        <v>0.5680000000000014</v>
       </c>
     </row>
     <row r="500">
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="K500" t="n">
-        <v>1.436254980079681</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="501">
@@ -18987,73 +18987,7 @@
         <v>0</v>
       </c>
       <c r="K501" t="n">
-        <v>2.436254980079681</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>ZION</t>
-        </is>
-      </c>
-      <c r="B502" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="C502" t="n">
-        <v>0</v>
-      </c>
-      <c r="D502" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E502" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
-      <c r="H502" t="n">
-        <v>0.07331196322824432</v>
-      </c>
-      <c r="I502" t="n">
-        <v>1</v>
-      </c>
-      <c r="J502" t="n">
-        <v>0</v>
-      </c>
-      <c r="K502" t="n">
-        <v>0.5637450199203187</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>ZTS</t>
-        </is>
-      </c>
-      <c r="B503" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="C503" t="n">
-        <v>0</v>
-      </c>
-      <c r="D503" t="n">
-        <v>13</v>
-      </c>
-      <c r="E503" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
-      <c r="H503" t="n">
-        <v>6.33262598348033</v>
-      </c>
-      <c r="I503" t="n">
-        <v>0</v>
-      </c>
-      <c r="J503" t="n">
-        <v>0</v>
-      </c>
-      <c r="K503" t="n">
-        <v>1.563745019920319</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/transformed_dataset.xlsx
+++ b/dataset/transformed_dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>genderratio</t>
+          <t>Gender Ratio</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>nationalitymix</t>
+          <t>Minority Ratio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>voting_power</t>
+          <t>VotePower</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>percentage_INEDs</t>
+          <t>%INEDS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>num_directors_&gt;4.5</t>
+          <t>Number Directors'Own&gt;4.5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>total_share_%</t>
+          <t>Board Ownership</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,17 +476,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CEODuality</t>
+          <t>CEO Dual</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dualclass</t>
+          <t>Dualclass Voting</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>boardsize_mean</t>
+          <t>Board Size DistFromMean</t>
         </is>
       </c>
     </row>
@@ -10080,10 +10080,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.6920000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D261" t="n">
         <v>46.2</v>
